--- a/data/keyword.xlsx
+++ b/data/keyword.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="プロマネ" sheetId="2" r:id="rId2"/>
+    <sheet name="ものづくり白書" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>キーワード</t>
     <phoneticPr fontId="1"/>
@@ -1674,12 +1675,266 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>② 従来「強み」と考えてきたものが、変革足かせになるおそれ  （例：すり合わせ重視、取引先の意向偏品質へ過信）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>① 人材の量的不足に加え質な抜本変化対応できていおそれ （例：人材スキル変化、デジタ不足シテム思考）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ 経済社会のデジタル化等大変革期を営者が認識できていなおそれ （例： IT ブーム再来との誤解、足元で好調な受注）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④ 非連続的な変革が必要であることを認識きていおそれ  （例：自前主義の限界、ボトムアップ経営依存）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大規模な環境変化  ⇒ 経営者が共通認識として持つべき危機感</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要課題</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応策①：現場力の維持・強化、デジタル人材等の人材育成対策</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジンザイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　組織として品質担保される仕組みの構築の必要性等を先進事例を交え論じる。</t>
+    <rPh sb="13" eb="15">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●質の高いデータや属人的な知見をデジタルアセット化する新たな「現場力」の再構築や、品質保証体制の強化に向け、</t>
+    <rPh sb="41" eb="43">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●人材育成の取組の成果有無と、 労働生産性や人材確保との関係性等を分析し、IT人材を含む労働生産性の向上に向けた</t>
+    <rPh sb="9" eb="11">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジンザイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　人材育成の必要性とその推進に向けた施策を論じる。</t>
+    <rPh sb="1" eb="3">
+      <t>ジンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒツヨウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スイシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シサク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●デジタル時代、特にＡＩの活用・普及などを念頭に、①高度技術人材や優れた若手研究者の育成、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　小中で理数教育やプログラミング教育による底上げ、②ＡＩ等の先端的研究開発の推進の必要性を分析して論じる。</t>
+    <rPh sb="16" eb="18">
+      <t>キョウイク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応策②：新たな環境変化に対応した付加価値向上</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●Connected Industries 推進の重要性を、先進事例の取組紹介に加え、取組にあたっての共通課題である</t>
+    <rPh sb="30" eb="32">
+      <t>センシン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>トリク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　サイバーセキュリティ対策やシスム思考の重要性等ともに論じる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題②：「モノ」の生産という意味で競争力源泉が相対化、「モノ」から「サービス・ソリュション」へ付加価値が移行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新たな環境変化に対応した付加価値獲得の必要性</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>課題①：深刻化する</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人手不足の中で現場力維持・強化、デジタル材等育成確保必要性</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">今こそ、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>経営主導</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> で、先進ツール等の利活用や変革期に必要な人材育成・確保を通して対応を推進</t>
+    </r>
+    <rPh sb="44" eb="46">
+      <t>スイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1689,6 +1944,23 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1736,7 +2008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1756,6 +2028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2068,7 +2341,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2400,7 +2673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2656,4 +2929,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>